--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3705.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3705.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.29723798073702</v>
+        <v>2.183329105377197</v>
       </c>
       <c r="B1">
-        <v>2.456708531084133</v>
+        <v>5.314236640930176</v>
       </c>
       <c r="C1">
-        <v>7.006724447309074</v>
+        <v>2.133415222167969</v>
       </c>
       <c r="D1">
-        <v>2.309938098174748</v>
+        <v>1.294260382652283</v>
       </c>
       <c r="E1">
-        <v>1.074215041528755</v>
+        <v>1.258863687515259</v>
       </c>
     </row>
   </sheetData>
